--- a/13/2/2/2/FpE por tipo de activo 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/FpE por tipo de activo 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Serie</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3870,6 +3873,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96">
+        <v>202</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>202</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/2/2/2/FpE por tipo de activo 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/FpE por tipo de activo 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Serie</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3908,6 +3911,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97">
+        <v>202</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>202</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13/2/2/2/FpE por tipo de activo 2007 a 2021 - Mensual.xlsx
+++ b/13/2/2/2/FpE por tipo de activo 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Serie</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -692,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3946,6 +3949,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98">
+        <v>202</v>
+      </c>
+      <c r="C98">
+        <v>50</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>152</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
